--- a/Before 2023.xlsx
+++ b/Before 2023.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stelios\Downloads\ΑΔΜΗΕ Δελτία ενέργειας - 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stelios\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E897D430-F468-4B74-861C-B999023AFD28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD2E74F-67A1-4EBE-A31A-35F1E6011A2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -24,7 +24,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -167,25 +166,13 @@
     <t>Energy Production [GWh]</t>
   </si>
   <si>
-    <t>Yearly Production [TWh]</t>
-  </si>
-  <si>
     <t>Days</t>
-  </si>
-  <si>
-    <t>Rest [TWh]</t>
   </si>
   <si>
     <t>Yearly PV production All [TWh]</t>
   </si>
   <si>
     <t>Energy Community PV Coverage</t>
-  </si>
-  <si>
-    <t>Contribution of encom</t>
-  </si>
-  <si>
-    <t>Sum [TWh]</t>
   </si>
   <si>
     <t>[TWh]</t>
@@ -200,10 +187,22 @@
     <t>Οι συντελεστές αφορούν το Διασυνδεδεμένο σύστημα, όχι τα ΜΔΝ</t>
   </si>
   <si>
-    <t>Electricity Production [TWh]</t>
+    <t>Electricity from Wind parks [TWh]</t>
   </si>
   <si>
-    <t>Electricity from Wind parks [TWh]</t>
+    <t>Yearly Production by EnCom [TWh]</t>
+  </si>
+  <si>
+    <t>Electricity Production of 2023 [TWh]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rest (production between 2023 and 2024) [TWh] </t>
+  </si>
+  <si>
+    <t>Total electric energy produced by En.Com. [TWh]</t>
+  </si>
+  <si>
+    <t>Contribution of En.Com. In the total yearly electricity production of 2023</t>
   </si>
 </sst>
 </file>
@@ -281,7 +280,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -291,12 +290,17 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -664,6 +668,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -671,7 +676,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1592,8 +1596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S1219"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1604,10 +1608,10 @@
     <col min="4" max="4" width="4.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.109375" customWidth="1"/>
-    <col min="8" max="8" width="10.88671875" customWidth="1"/>
-    <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="20.44140625" customWidth="1"/>
+    <col min="7" max="7" width="31.6640625" customWidth="1"/>
+    <col min="8" max="8" width="25.44140625" customWidth="1"/>
+    <col min="9" max="9" width="26.21875" customWidth="1"/>
+    <col min="10" max="10" width="28.33203125" customWidth="1"/>
     <col min="11" max="11" width="32.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1630,20 +1634,20 @@
       <c r="F1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2">
@@ -1797,7 +1801,7 @@
         <v>1.4305758015865124</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H4">
         <v>31</v>
@@ -1857,10 +1861,10 @@
         <v>1.4418667473125419</v>
       </c>
       <c r="K5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>30540</v>
       </c>
@@ -1881,13 +1885,13 @@
         <v>0.72093337365627097</v>
       </c>
       <c r="G6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H6" t="s">
-        <v>46</v>
+        <v>52</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="I6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
@@ -1967,7 +1971,6 @@
         <f>0.212</f>
         <v>0.21199999999999999</v>
       </c>
-      <c r="P9" s="8"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -1990,12 +1993,11 @@
         <v>1.4390115656346956</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I10" t="s">
-        <v>52</v>
-      </c>
-      <c r="P10" s="8"/>
+        <v>48</v>
+      </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11">
@@ -2024,7 +2026,6 @@
         <f>I7/G11</f>
         <v>0.17531514895720254</v>
       </c>
-      <c r="P11" s="8"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12">
@@ -2047,7 +2048,6 @@
         <v>1.4209287483416668</v>
       </c>
       <c r="K12" s="2"/>
-      <c r="P12" s="8"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13">
@@ -2070,9 +2070,8 @@
         <v>1.4152183849859739</v>
       </c>
       <c r="G13" t="s">
-        <v>55</v>
-      </c>
-      <c r="P13" s="8"/>
+        <v>53</v>
+      </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14">
@@ -2097,7 +2096,6 @@
       <c r="G14">
         <v>47.615000000000002</v>
       </c>
-      <c r="P14" s="8"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15">
@@ -2119,7 +2117,6 @@
         <f t="shared" si="1"/>
         <v>1.441650445670281</v>
       </c>
-      <c r="P15" s="8"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16">
@@ -2141,9 +2138,8 @@
         <f t="shared" si="1"/>
         <v>1.4418667473125419</v>
       </c>
-      <c r="P16" s="8"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>4515</v>
       </c>
@@ -2164,11 +2160,10 @@
         <v>1.4418667473125419</v>
       </c>
       <c r="G17" t="s">
-        <v>48</v>
-      </c>
-      <c r="P17" s="8"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>4520</v>
       </c>
@@ -2192,9 +2187,8 @@
         <f>(I7/G14)*100</f>
         <v>3.0482707512688854</v>
       </c>
-      <c r="P18" s="8"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>4522</v>
       </c>
@@ -2214,9 +2208,8 @@
         <f t="shared" si="1"/>
         <v>1.4412322624952429</v>
       </c>
-      <c r="P19" s="8"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>4523</v>
       </c>
@@ -2237,17 +2230,16 @@
         <v>0.72006095703248463</v>
       </c>
       <c r="G20" t="s">
+        <v>51</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="J20" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="I20" t="s">
-        <v>50</v>
-      </c>
-      <c r="J20" t="s">
-        <v>49</v>
-      </c>
-      <c r="P20" s="8"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>4531</v>
       </c>
@@ -2279,7 +2271,7 @@
         <v>3.0538201151956025E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>4534</v>
       </c>
@@ -2300,7 +2292,7 @@
         <v>0.72006095703248463</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>4547</v>
       </c>
@@ -2321,7 +2313,7 @@
         <v>1.4418667473125419</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>4548</v>
       </c>
@@ -2342,7 +2334,7 @@
         <v>1.4418667473125419</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>4555</v>
       </c>
@@ -2363,7 +2355,7 @@
         <v>0.72006095703248463</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>4556</v>
       </c>
@@ -2384,7 +2376,7 @@
         <v>0.72006095703248463</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>4557</v>
       </c>
@@ -2405,7 +2397,7 @@
         <v>0.72006095703248463</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>4562</v>
       </c>
@@ -2426,7 +2418,7 @@
         <v>1.4413476233711153</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>4563</v>
       </c>
@@ -2447,7 +2439,7 @@
         <v>0.71985186544496549</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>4567</v>
       </c>
@@ -2468,7 +2460,7 @@
         <v>0.71985186544496549</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>4568</v>
       </c>
@@ -2489,7 +2481,7 @@
         <v>1.4413476233711153</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>4569</v>
       </c>
@@ -18973,14 +18965,14 @@
         <f t="shared" si="13"/>
         <v>0.72087569321833478</v>
       </c>
-      <c r="G816" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H816" s="7"/>
-      <c r="I816" s="7"/>
-      <c r="J816" s="7"/>
-      <c r="K816" s="7"/>
-      <c r="L816" s="7"/>
+      <c r="G816" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H816" s="8"/>
+      <c r="I816" s="8"/>
+      <c r="J816" s="8"/>
+      <c r="K816" s="8"/>
+      <c r="L816" s="8"/>
     </row>
     <row r="817" spans="1:12" x14ac:dyDescent="0.3">
       <c r="G817">
